--- a/Data/Techmap/TestModel.xlsx
+++ b/Data/Techmap/TestModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina Hajikazemi\Documents\mycode\demodel_pyomo\Data\Techmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-OTHER\CESM\Data\Techmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50881741-77F7-44B3-BF21-B28E8EC7F7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1795B9F6-32D8-466E-8697-891E8D10036C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="21096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="9" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <definedName name="Energy">Units!$B$3</definedName>
     <definedName name="Power">Units!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
   <si>
     <t>Base</t>
   </si>
@@ -321,6 +310,27 @@
   </si>
   <si>
     <t>commodity_name</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>#00000</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>#010101</t>
+  </si>
+  <si>
+    <t>#0F0F0F</t>
+  </si>
+  <si>
+    <t>#009900</t>
   </si>
 </sst>
 </file>
@@ -451,22 +461,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="commodity_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="description"/>
+    <tableColumn id="3" xr3:uid="{AC1C6448-A411-49D4-AB15-F2EA657B5E68}" name="color"/>
+    <tableColumn id="4" xr3:uid="{ACFA8E26-DCEC-4D5B-81FF-9EA6C803EF4A}" name="order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="conversion_process_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="description"/>
+    <tableColumn id="3" xr3:uid="{44C70FB4-DB71-4477-8886-1AC4F8D50B42}" name="color"/>
+    <tableColumn id="4" xr3:uid="{EB093172-9BA6-4AE3-9C5D-AAC9B4778384}" name="order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -817,12 +831,12 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
@@ -833,7 +847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -844,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -857,7 +871,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -869,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -881,7 +895,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -893,7 +907,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -905,7 +919,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -932,16 +946,16 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -967,7 +981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1007,7 +1021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1038,38 +1052,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1083,44 +1115,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1143,33 +1199,33 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
-    <col min="15" max="15" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.7265625" customWidth="1"/>
-    <col min="18" max="18" width="18.453125" customWidth="1"/>
-    <col min="19" max="19" width="11.26953125" customWidth="1"/>
-    <col min="20" max="20" width="10.90625" customWidth="1"/>
-    <col min="21" max="21" width="14.08984375" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" customWidth="1"/>
-    <col min="24" max="24" width="13.81640625" customWidth="1"/>
-    <col min="25" max="25" width="12.90625" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" customWidth="1"/>
+    <col min="24" max="24" width="13.77734375" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" customWidth="1"/>
+    <col min="26" max="26" width="16.21875" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1249,7 +1305,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="3" t="s">
         <v>62</v>
       </c>
@@ -1308,7 +1364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1349,7 +1405,7 @@
         <v>TWh/a</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1418,7 +1474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1454,17 +1510,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
